--- a/BEMFSimulation/ExcelResults/LineVoltage5500.xlsx
+++ b/BEMFSimulation/ExcelResults/LineVoltage5500.xlsx
@@ -408,13 +408,13 @@
         <v>3.03030303030303e-05</v>
       </c>
       <c r="B2">
-        <v>-357.6476294730869</v>
+        <v>-361.0144046315116</v>
       </c>
       <c r="C2">
-        <v>742.5756476202159</v>
+        <v>756.6930161881047</v>
       </c>
       <c r="D2">
-        <v>-384.928018147129</v>
+        <v>-395.6786115565931</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -422,13 +422,13 @@
         <v>6.06060606060606e-05</v>
       </c>
       <c r="B3">
-        <v>-322.1535293956073</v>
+        <v>-331.1789904776257</v>
       </c>
       <c r="C3">
-        <v>721.5006306894386</v>
+        <v>744.4601724297931</v>
       </c>
       <c r="D3">
-        <v>-399.3471012938313</v>
+        <v>-413.2811819521673</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -436,13 +436,13 @@
         <v>9.09090909090909e-05</v>
       </c>
       <c r="B4">
-        <v>-248.3405556415367</v>
+        <v>-263.4685864824634</v>
       </c>
       <c r="C4">
-        <v>677.9650955313679</v>
+        <v>706.0653836416334</v>
       </c>
       <c r="D4">
-        <v>-429.6245398898312</v>
+        <v>-442.5967971591699</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -450,13 +450,13 @@
         <v>0.0001212121212121212</v>
       </c>
       <c r="B5">
-        <v>-151.3912917515486</v>
+        <v>-148.4774360274964</v>
       </c>
       <c r="C5">
-        <v>623.6564022195162</v>
+        <v>625.1931907459352</v>
       </c>
       <c r="D5">
-        <v>-472.2651104679676</v>
+        <v>-476.7157547184388</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -464,13 +464,13 @@
         <v>0.0001515151515151515</v>
       </c>
       <c r="B6">
-        <v>-72.96798646782943</v>
+        <v>-70.3685277002574</v>
       </c>
       <c r="C6">
-        <v>587.1233896103764</v>
+        <v>605.4075002767562</v>
       </c>
       <c r="D6">
-        <v>-514.1554031425469</v>
+        <v>-535.0389725764987</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -478,13 +478,13 @@
         <v>0.0001818181818181818</v>
       </c>
       <c r="B7">
-        <v>-32.53838681280217</v>
+        <v>-35.49502833266729</v>
       </c>
       <c r="C7">
-        <v>568.4920820840994</v>
+        <v>587.9129723989449</v>
       </c>
       <c r="D7">
-        <v>-535.9536952712972</v>
+        <v>-552.4179440662776</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -492,13 +492,13 @@
         <v>0.0002121212121212121</v>
       </c>
       <c r="B8">
-        <v>-8.868613375958091</v>
+        <v>-13.2760782245274</v>
       </c>
       <c r="C8">
-        <v>570.8795047177993</v>
+        <v>579.5171660242011</v>
       </c>
       <c r="D8">
-        <v>-562.0108913418411</v>
+        <v>-566.2410877996737</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -506,13 +506,13 @@
         <v>0.0002424242424242424</v>
       </c>
       <c r="B9">
-        <v>8.427329092425595</v>
+        <v>10.19113450320029</v>
       </c>
       <c r="C9">
-        <v>563.9431865124781</v>
+        <v>568.8851964539185</v>
       </c>
       <c r="D9">
-        <v>-572.3705156049036</v>
+        <v>-579.0763309571188</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -520,13 +520,13 @@
         <v>0.0002727272727272727</v>
       </c>
       <c r="B10">
-        <v>32.10513962100993</v>
+        <v>36.03399205651928</v>
       </c>
       <c r="C10">
-        <v>537.4203267038478</v>
+        <v>548.242805212109</v>
       </c>
       <c r="D10">
-        <v>-569.5254663248577</v>
+        <v>-584.2767972686283</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -534,13 +534,13 @@
         <v>0.000303030303030303</v>
       </c>
       <c r="B11">
-        <v>72.01134234937339</v>
+        <v>72.34138821109806</v>
       </c>
       <c r="C11">
-        <v>516.0263456671422</v>
+        <v>541.8291425643764</v>
       </c>
       <c r="D11">
-        <v>-588.0376880165156</v>
+        <v>-614.1705307754745</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -548,13 +548,13 @@
         <v>0.0003333333333333333</v>
       </c>
       <c r="B12">
-        <v>150.745737062772</v>
+        <v>155.0798766920115</v>
       </c>
       <c r="C12">
-        <v>473.845595016578</v>
+        <v>478.754800807191</v>
       </c>
       <c r="D12">
-        <v>-624.59133207935</v>
+        <v>-633.8346774992026</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -562,13 +562,13 @@
         <v>0.0003636363636363636</v>
       </c>
       <c r="B13">
-        <v>246.7830678969065</v>
+        <v>257.0056445971688</v>
       </c>
       <c r="C13">
-        <v>430.9487412659272</v>
+        <v>436.8893758935411</v>
       </c>
       <c r="D13">
-        <v>-677.7318091628337</v>
+        <v>-693.8950204907098</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -576,13 +576,13 @@
         <v>0.0003939393939393939</v>
       </c>
       <c r="B14">
-        <v>321.3632256048814</v>
+        <v>335.0647877189869</v>
       </c>
       <c r="C14">
-        <v>399.3290988942608</v>
+        <v>413.0318053859887</v>
       </c>
       <c r="D14">
-        <v>-720.6923244991423</v>
+        <v>-748.0965931049757</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -590,13 +590,13 @@
         <v>0.0004242424242424241</v>
       </c>
       <c r="B15">
-        <v>356.6313560552994</v>
+        <v>358.5132681961755</v>
       </c>
       <c r="C15">
-        <v>383.7620999112099</v>
+        <v>393.3680179618465</v>
       </c>
       <c r="D15">
-        <v>-740.3934559665092</v>
+        <v>-751.881286158022</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -604,13 +604,13 @@
         <v>0.0004545454545454544</v>
       </c>
       <c r="B16">
-        <v>379.846774960615</v>
+        <v>384.5538286129209</v>
       </c>
       <c r="C16">
-        <v>379.2400876769938</v>
+        <v>386.0796712911841</v>
       </c>
       <c r="D16">
-        <v>-759.0868626376088</v>
+        <v>-770.6334999041051</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -618,13 +618,13 @@
         <v>0.0004848484848484847</v>
       </c>
       <c r="B17">
-        <v>384.0279470704609</v>
+        <v>393.3520425209162</v>
       </c>
       <c r="C17">
-        <v>357.7572875648111</v>
+        <v>361.3167133665235</v>
       </c>
       <c r="D17">
-        <v>-741.785234635272</v>
+        <v>-754.6687558874396</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -632,13 +632,13 @@
         <v>0.000515151515151515</v>
       </c>
       <c r="B18">
-        <v>398.235033099143</v>
+        <v>413.2909406690025</v>
       </c>
       <c r="C18">
-        <v>322.3572741935237</v>
+        <v>332.5791310588317</v>
       </c>
       <c r="D18">
-        <v>-720.5923072926666</v>
+        <v>-745.8700717278342</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -646,13 +646,13 @@
         <v>0.0005454545454545454</v>
       </c>
       <c r="B19">
-        <v>430.274885727832</v>
+        <v>444.3796906143606</v>
       </c>
       <c r="C19">
-        <v>249.2265225387599</v>
+        <v>263.6713325521638</v>
       </c>
       <c r="D19">
-        <v>-679.501408266592</v>
+        <v>-708.0510231665244</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -660,13 +660,13 @@
         <v>0.0005757575757575757</v>
       </c>
       <c r="B20">
-        <v>473.610257053548</v>
+        <v>478.2846629767115</v>
       </c>
       <c r="C20">
-        <v>151.5316919335729</v>
+        <v>150.0371623708296</v>
       </c>
       <c r="D20">
-        <v>-625.1419489871209</v>
+        <v>-628.3218253475411</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -674,13 +674,13 @@
         <v>0.0006060606060606061</v>
       </c>
       <c r="B21">
-        <v>515.401862645013</v>
+        <v>536.953198914071</v>
       </c>
       <c r="C21">
-        <v>72.73166356047531</v>
+        <v>71.71572050321657</v>
       </c>
       <c r="D21">
-        <v>-588.1335262054884</v>
+        <v>-608.6689194172875</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -688,13 +688,13 @@
         <v>0.0006363636363636364</v>
       </c>
       <c r="B22">
-        <v>536.6401624051698</v>
+        <v>552.4952678830563</v>
       </c>
       <c r="C22">
-        <v>32.91950095723598</v>
+        <v>36.19562158570145</v>
       </c>
       <c r="D22">
-        <v>-569.5596633624058</v>
+        <v>-588.6908894687577</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -702,13 +702,13 @@
         <v>0.0006666666666666668</v>
       </c>
       <c r="B23">
-        <v>562.1554267171492</v>
+        <v>567.340654857916</v>
       </c>
       <c r="C23">
-        <v>9.13681121735749</v>
+        <v>12.09462122001938</v>
       </c>
       <c r="D23">
-        <v>-571.2922379345067</v>
+        <v>-579.4352760779354</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -716,13 +716,13 @@
         <v>0.0006969696969696971</v>
       </c>
       <c r="B24">
-        <v>571.9962219572759</v>
+        <v>581.7978097186021</v>
       </c>
       <c r="C24">
-        <v>-8.582541033502025</v>
+        <v>-11.67551763199833</v>
       </c>
       <c r="D24">
-        <v>-563.4136809237739</v>
+        <v>-570.1222920866038</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -730,13 +730,13 @@
         <v>0.0007272727272727274</v>
       </c>
       <c r="B25">
-        <v>570.2868903521168</v>
+        <v>585.6555873516505</v>
       </c>
       <c r="C25">
-        <v>-32.55798323851741</v>
+        <v>-35.89052329610396</v>
       </c>
       <c r="D25">
-        <v>-537.7289071135993</v>
+        <v>-549.7650640555465</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -744,13 +744,13 @@
         <v>0.0007575757575757578</v>
       </c>
       <c r="B26">
-        <v>589.2190230458698</v>
+        <v>612.5852237379974</v>
       </c>
       <c r="C26">
-        <v>-72.1373406221538</v>
+        <v>-70.62815337096623</v>
       </c>
       <c r="D26">
-        <v>-517.081682423716</v>
+        <v>-541.9570703670311</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -758,13 +758,13 @@
         <v>0.0007878787878787881</v>
       </c>
       <c r="B27">
-        <v>625.9723333394435</v>
+        <v>631.1557308736595</v>
       </c>
       <c r="C27">
-        <v>-150.6973734028057</v>
+        <v>-152.630692384619</v>
       </c>
       <c r="D27">
-        <v>-475.2749599366377</v>
+        <v>-478.5250384890405</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -772,13 +772,13 @@
         <v>0.0008181818181818185</v>
       </c>
       <c r="B28">
-        <v>680.1106723464698</v>
+        <v>694.9609496832829</v>
       </c>
       <c r="C28">
-        <v>-247.5673343259401</v>
+        <v>-257.4524633788384</v>
       </c>
       <c r="D28">
-        <v>-432.5433380205296</v>
+        <v>-437.5084863044445</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -786,13 +786,13 @@
         <v>0.0008484848484848488</v>
       </c>
       <c r="B29">
-        <v>722.0175213408779</v>
+        <v>751.1186536145676</v>
       </c>
       <c r="C29">
-        <v>-322.182644615014</v>
+        <v>-336.4376565080761</v>
       </c>
       <c r="D29">
-        <v>-399.8348767258639</v>
+        <v>-414.6809971064914</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -800,13 +800,13 @@
         <v>0.0008787878787878792</v>
       </c>
       <c r="B30">
-        <v>740.3890374741436</v>
+        <v>754.4635190500542</v>
       </c>
       <c r="C30">
-        <v>-357.0581053436824</v>
+        <v>-359.576101936907</v>
       </c>
       <c r="D30">
-        <v>-383.3309321304611</v>
+        <v>-394.8874171131471</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -814,13 +814,13 @@
         <v>0.0009090909090909095</v>
       </c>
       <c r="B31">
-        <v>758.491528073009</v>
+        <v>769.0144241469932</v>
       </c>
       <c r="C31">
-        <v>-379.7166384394258</v>
+        <v>-384.4227383498896</v>
       </c>
       <c r="D31">
-        <v>-378.7748896335832</v>
+        <v>-384.5916857971035</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -828,13 +828,13 @@
         <v>0.0009393939393939399</v>
       </c>
       <c r="B32">
-        <v>741.2208132624803</v>
+        <v>749.9921580149814</v>
       </c>
       <c r="C32">
-        <v>-384.0398688631788</v>
+        <v>-392.2684552734046</v>
       </c>
       <c r="D32">
-        <v>-357.1809443993016</v>
+        <v>-357.7237027415768</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -842,13 +842,13 @@
         <v>0.0009696969696969702</v>
       </c>
       <c r="B33">
-        <v>720.1827874133096</v>
+        <v>743.7548058364405</v>
       </c>
       <c r="C33">
-        <v>-398.4519238021603</v>
+        <v>-412.5121389494078</v>
       </c>
       <c r="D33">
-        <v>-321.7308636111493</v>
+        <v>-331.2426668870327</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -856,13 +856,13 @@
         <v>0.001</v>
       </c>
       <c r="B34">
-        <v>678.9422765297669</v>
+        <v>708.6082324242957</v>
       </c>
       <c r="C34">
-        <v>-430.0606152537397</v>
+        <v>-443.728783725791</v>
       </c>
       <c r="D34">
-        <v>-248.8816612760272</v>
+        <v>-264.8794486985047</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -870,13 +870,13 @@
         <v>0.001030303030303031</v>
       </c>
       <c r="B35">
-        <v>624.7403886264906</v>
+        <v>626.88740329958</v>
       </c>
       <c r="C35">
-        <v>-473.1621811793377</v>
+        <v>-476.5408484415205</v>
       </c>
       <c r="D35">
-        <v>-151.5782074471528</v>
+        <v>-150.3465548580594</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -884,13 +884,13 @@
         <v>0.001060606060606061</v>
       </c>
       <c r="B36">
-        <v>587.9836653413256</v>
+        <v>605.9028422706281</v>
       </c>
       <c r="C36">
-        <v>-514.946637383448</v>
+        <v>-535.2798039912167</v>
       </c>
       <c r="D36">
-        <v>-73.03702795787765</v>
+        <v>-70.62303827941142</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -898,13 +898,13 @@
         <v>0.001090909090909091</v>
       </c>
       <c r="B37">
-        <v>569.7818532429231</v>
+        <v>587.935160840699</v>
       </c>
       <c r="C37">
-        <v>-536.9935536914384</v>
+        <v>-553.0005532289922</v>
       </c>
       <c r="D37">
-        <v>-32.78829955148484</v>
+        <v>-34.93460761170687</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -912,13 +912,13 @@
         <v>0.001121212121212121</v>
       </c>
       <c r="B38">
-        <v>571.4520112003991</v>
+        <v>579.4206927585144</v>
       </c>
       <c r="C38">
-        <v>-562.5355715655203</v>
+        <v>-566.8876882371189</v>
       </c>
       <c r="D38">
-        <v>-8.916439634878827</v>
+        <v>-12.53300452139544</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -926,13 +926,13 @@
         <v>0.001151515151515152</v>
       </c>
       <c r="B39">
-        <v>564.1493784366589</v>
+        <v>570.2229319738992</v>
       </c>
       <c r="C39">
-        <v>-572.9674570197159</v>
+        <v>-580.7815030057682</v>
       </c>
       <c r="D39">
-        <v>8.818078583056945</v>
+        <v>10.55857103186895</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -940,13 +940,13 @@
         <v>0.001181818181818182</v>
       </c>
       <c r="B40">
-        <v>537.0326749143088</v>
+        <v>549.3653179117002</v>
       </c>
       <c r="C40">
-        <v>-569.4847408305726</v>
+        <v>-584.9600056755812</v>
       </c>
       <c r="D40">
-        <v>32.45206591626382</v>
+        <v>35.5946877638809</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -954,13 +954,13 @@
         <v>0.001212121212121212</v>
       </c>
       <c r="B41">
-        <v>516.2627578728741</v>
+        <v>543.6564280030914</v>
       </c>
       <c r="C41">
-        <v>-588.2901110017176</v>
+        <v>-615.2063208310703</v>
       </c>
       <c r="D41">
-        <v>72.02735312884343</v>
+        <v>71.54989282797897</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -968,13 +968,13 @@
         <v>0.001242424242424242</v>
       </c>
       <c r="B42">
-        <v>474.539268397391</v>
+        <v>478.8275823972942</v>
       </c>
       <c r="C42">
-        <v>-625.1085061576537</v>
+        <v>-633.4537328898658</v>
       </c>
       <c r="D42">
-        <v>150.5692377602627</v>
+        <v>154.6261504925716</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -982,13 +982,13 @@
         <v>0.001272727272727273</v>
       </c>
       <c r="B43">
-        <v>431.5033709250174</v>
+        <v>437.6416370789098</v>
       </c>
       <c r="C43">
-        <v>-678.7763859441103</v>
+        <v>-696.0297520641167</v>
       </c>
       <c r="D43">
-        <v>247.2730150190929</v>
+        <v>258.3881149852069</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -996,13 +996,13 @@
         <v>0.001303030303030303</v>
       </c>
       <c r="B44">
-        <v>399.7022658157191</v>
+        <v>414.4635043897255</v>
       </c>
       <c r="C44">
-        <v>-721.941929880333</v>
+        <v>-750.7136483396325</v>
       </c>
       <c r="D44">
-        <v>322.2396640646139</v>
+        <v>336.2501439499071</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1010,13 +1010,13 @@
         <v>0.001333333333333333</v>
       </c>
       <c r="B45">
-        <v>384.1753615820088</v>
+        <v>393.0513703157496</v>
       </c>
       <c r="C45">
-        <v>-741.8820608419159</v>
+        <v>-750.5106091613243</v>
       </c>
       <c r="D45">
-        <v>357.7066992599071</v>
+        <v>357.4592388455746</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1024,13 +1024,13 @@
         <v>0.001363636363636363</v>
       </c>
       <c r="B46">
-        <v>379.8886616105085</v>
+        <v>387.2035813678013</v>
       </c>
       <c r="C46">
-        <v>-760.7033627412995</v>
+        <v>-773.7638526189835</v>
       </c>
       <c r="D46">
-        <v>380.814701130791</v>
+        <v>386.5602712511821</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1038,13 +1038,13 @@
         <v>0.001393939393939394</v>
       </c>
       <c r="B47">
-        <v>357.5992541991665</v>
+        <v>360.9748087160771</v>
       </c>
       <c r="C47">
-        <v>-742.5316484706237</v>
+        <v>-756.6688839936734</v>
       </c>
       <c r="D47">
-        <v>384.9323942714573</v>
+        <v>395.6940752775963</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1052,13 +1052,13 @@
         <v>0.001424242424242424</v>
       </c>
       <c r="B48">
-        <v>322.0912636515143</v>
+        <v>331.1351863536514</v>
       </c>
       <c r="C48">
-        <v>-721.4752130631523</v>
+        <v>-744.4595721030562</v>
       </c>
       <c r="D48">
-        <v>399.3839494116379</v>
+        <v>413.3243857494048</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1066,13 +1066,13 @@
         <v>0.001454545454545454</v>
       </c>
       <c r="B49">
-        <v>248.1975249222212</v>
+        <v>263.2977561349472</v>
       </c>
       <c r="C49">
-        <v>-677.8772452035165</v>
+        <v>-705.930467131042</v>
       </c>
       <c r="D49">
-        <v>429.6797202812953</v>
+        <v>442.6327109960948</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1080,13 +1080,13 @@
         <v>0.001484848484848484</v>
       </c>
       <c r="B50">
-        <v>151.2615638455832</v>
+        <v>148.3410111472899</v>
       </c>
       <c r="C50">
-        <v>-623.5886942059585</v>
+        <v>-625.132666764428</v>
       </c>
       <c r="D50">
-        <v>472.3271303603753</v>
+        <v>476.7916556171381</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1094,13 +1094,13 @@
         <v>0.001515151515151514</v>
       </c>
       <c r="B51">
-        <v>72.88144343160616</v>
+        <v>70.28428657435597</v>
       </c>
       <c r="C51">
-        <v>-587.0873975643414</v>
+        <v>-605.3907256160696</v>
       </c>
       <c r="D51">
-        <v>514.2059541327352</v>
+        <v>535.1064390417137</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1108,13 +1108,13 @@
         <v>0.001545454545454545</v>
       </c>
       <c r="B52">
-        <v>32.49823435484393</v>
+        <v>35.46645052913217</v>
       </c>
       <c r="C52">
-        <v>-568.4775849575356</v>
+        <v>-587.8806433649605</v>
       </c>
       <c r="D52">
-        <v>535.9793506026915</v>
+        <v>552.4141928358283</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1122,13 +1122,13 @@
         <v>0.001575757575757575</v>
       </c>
       <c r="B53">
-        <v>8.8411562540349</v>
+        <v>13.24478819390484</v>
       </c>
       <c r="C53">
-        <v>-570.8903768661021</v>
+        <v>-579.5259191766677</v>
       </c>
       <c r="D53">
-        <v>562.0492206120671</v>
+        <v>566.2811309827629</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1136,13 +1136,13 @@
         <v>0.001606060606060605</v>
       </c>
       <c r="B54">
-        <v>-8.454266068154226</v>
+        <v>-10.22693785275769</v>
       </c>
       <c r="C54">
-        <v>-563.9101152782248</v>
+        <v>-568.8487858770902</v>
       </c>
       <c r="D54">
-        <v>572.3643813463791</v>
+        <v>579.0757237298479</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1150,13 +1150,13 @@
         <v>0.001636363636363635</v>
       </c>
       <c r="B55">
-        <v>-32.14586484660026</v>
+        <v>-36.07855475225921</v>
       </c>
       <c r="C55">
-        <v>-537.3923079113247</v>
+        <v>-548.2189571935139</v>
       </c>
       <c r="D55">
-        <v>569.5381727579249</v>
+        <v>584.2975119457731</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1164,13 +1164,13 @@
         <v>0.001666666666666666</v>
       </c>
       <c r="B56">
-        <v>-72.0963612282284</v>
+        <v>-72.42023662930603</v>
       </c>
       <c r="C56">
-        <v>-515.9743100864649</v>
+        <v>-541.7930042553314</v>
       </c>
       <c r="D56">
-        <v>588.0706713146933</v>
+        <v>614.2132408846375</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1178,13 +1178,13 @@
         <v>0.001696969696969696</v>
       </c>
       <c r="B57">
-        <v>-150.8758552250457</v>
+        <v>-155.2139172789056</v>
       </c>
       <c r="C57">
-        <v>-473.7850011942531</v>
+        <v>-478.65929589118</v>
       </c>
       <c r="D57">
-        <v>624.6608564192989</v>
+        <v>633.8732131700856</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1192,13 +1192,13 @@
         <v>0.001727272727272726</v>
       </c>
       <c r="B58">
-        <v>-246.9245039907166</v>
+        <v>-257.1572331073333</v>
       </c>
       <c r="C58">
-        <v>-430.8898287967722</v>
+        <v>-436.8505608301187</v>
       </c>
       <c r="D58">
-        <v>677.8143327874888</v>
+        <v>694.007793937452</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1206,13 +1206,13 @@
         <v>0.001757575757575756</v>
       </c>
       <c r="B59">
-        <v>-321.4305983940557</v>
+        <v>-335.1237655131013</v>
       </c>
       <c r="C59">
-        <v>-399.2965104446644</v>
+        <v>-412.9991688201431</v>
       </c>
       <c r="D59">
-        <v>720.7271088387201</v>
+        <v>748.1229343332444</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1220,13 +1220,13 @@
         <v>0.001787878787878787</v>
       </c>
       <c r="B60">
-        <v>-356.6748145046865</v>
+        <v>-358.5502968139425</v>
       </c>
       <c r="C60">
-        <v>-383.7498360421466</v>
+        <v>-393.3500779574342</v>
       </c>
       <c r="D60">
-        <v>740.4246505468332</v>
+        <v>751.9003747713766</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1234,13 +1234,13 @@
         <v>0.001818181818181817</v>
       </c>
       <c r="B61">
-        <v>-379.8628080224936</v>
+        <v>-384.5778894300898</v>
       </c>
       <c r="C61">
-        <v>-379.2275540187703</v>
+        <v>-386.0588378540943</v>
       </c>
       <c r="D61">
-        <v>759.0903620412639</v>
+        <v>770.6367272841842</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1248,13 +1248,13 @@
         <v>0.001848484848484847</v>
       </c>
       <c r="B62">
-        <v>-384.0362337116542</v>
+        <v>-393.3657896864195</v>
       </c>
       <c r="C62">
-        <v>-357.7131225083001</v>
+        <v>-361.2773323821132</v>
       </c>
       <c r="D62">
-        <v>741.7493562199543</v>
+        <v>754.6431220685328</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1262,13 +1262,13 @@
         <v>0.001878787878787877</v>
       </c>
       <c r="B63">
-        <v>-398.2688311967952</v>
+        <v>-413.3403292851896</v>
       </c>
       <c r="C63">
-        <v>-322.2922812687818</v>
+        <v>-332.5372381078595</v>
       </c>
       <c r="D63">
-        <v>720.561112465577</v>
+        <v>745.877567393049</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1276,13 +1276,13 @@
         <v>0.001909090909090908</v>
       </c>
       <c r="B64">
-        <v>-430.3345866461805</v>
+        <v>-444.415962299045</v>
       </c>
       <c r="C64">
-        <v>-249.0850393795317</v>
+        <v>-263.4989072246921</v>
       </c>
       <c r="D64">
-        <v>679.4196260257122</v>
+        <v>707.914869523737</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1290,13 +1290,13 @@
         <v>0.001939393939393938</v>
       </c>
       <c r="B65">
-        <v>-473.672566762061</v>
+        <v>-478.3602205347756</v>
       </c>
       <c r="C65">
-        <v>-151.3995939547609</v>
+        <v>-149.9011014140786</v>
       </c>
       <c r="D65">
-        <v>625.0721607168218</v>
+        <v>628.2613219488542</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1304,13 +1304,13 @@
         <v>0.001969696969696968</v>
       </c>
       <c r="B66">
-        <v>-515.4494002452041</v>
+        <v>-537.0224252168767</v>
       </c>
       <c r="C66">
-        <v>-72.64595780945905</v>
+        <v>-71.63290336577546</v>
       </c>
       <c r="D66">
-        <v>588.0953580546632</v>
+        <v>608.6553285826523</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1318,13 +1318,13 @@
         <v>0.001999999999999998</v>
       </c>
       <c r="B67">
-        <v>-536.6683795360948</v>
+        <v>-552.4925873373652</v>
       </c>
       <c r="C67">
-        <v>-32.87962509652723</v>
+        <v>-36.16375986457754</v>
       </c>
       <c r="D67">
-        <v>569.548004632622</v>
+        <v>588.6563472019427</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1332,13 +1332,13 @@
         <v>0.002030303030303029</v>
       </c>
       <c r="B68">
-        <v>-562.1913130332878</v>
+        <v>-567.3785793244707</v>
       </c>
       <c r="C68">
-        <v>-9.108742673859837</v>
+        <v>-12.06222423917117</v>
       </c>
       <c r="D68">
-        <v>571.3000557071476</v>
+        <v>579.4408035636419</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1346,13 +1346,13 @@
         <v>0.002060606060606059</v>
       </c>
       <c r="B69">
-        <v>-571.9908526114526</v>
+        <v>-581.7972408666383</v>
       </c>
       <c r="C69">
-        <v>8.609975190820336</v>
+        <v>11.71073207489493</v>
       </c>
       <c r="D69">
-        <v>563.3808774206323</v>
+        <v>570.0865087917434</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1360,13 +1360,13 @@
         <v>0.002090909090909089</v>
       </c>
       <c r="B70">
-        <v>-570.2995390782899</v>
+        <v>-585.6733681557804</v>
       </c>
       <c r="C70">
-        <v>32.59915805775498</v>
+        <v>35.93187518085432</v>
       </c>
       <c r="D70">
-        <v>537.7003810205349</v>
+        <v>549.7414929749261</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1374,13 +1374,13 @@
         <v>0.002121212121212119</v>
       </c>
       <c r="B71">
-        <v>-589.2531461168574</v>
+        <v>-612.6273926564935</v>
       </c>
       <c r="C71">
-        <v>72.22159028396337</v>
+        <v>70.70525608582247</v>
       </c>
       <c r="D71">
-        <v>517.031555832894</v>
+        <v>541.922136570671</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1388,13 +1388,13 @@
         <v>0.002151515151515149</v>
       </c>
       <c r="B72">
-        <v>-626.0427035735163</v>
+        <v>-631.1907478551815</v>
       </c>
       <c r="C72">
-        <v>150.8283375977881</v>
+        <v>152.7654367871793</v>
       </c>
       <c r="D72">
-        <v>475.2143659757281</v>
+        <v>478.4253110680021</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1402,13 +1402,13 @@
         <v>0.00218181818181818</v>
       </c>
       <c r="B73">
-        <v>-680.1957631518942</v>
+        <v>-695.081010003445</v>
       </c>
       <c r="C73">
-        <v>247.7096572630709</v>
+        <v>257.6083600926987</v>
       </c>
       <c r="D73">
-        <v>432.4861058888233</v>
+        <v>437.4726499107463</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1416,13 +1416,13 @@
         <v>0.00221212121212121</v>
       </c>
       <c r="B74">
-        <v>-722.0422931768164</v>
+        <v>-751.145308098988</v>
       </c>
       <c r="C74">
-        <v>322.246924013233</v>
+        <v>336.4964407115556</v>
       </c>
       <c r="D74">
-        <v>399.7953691635835</v>
+        <v>414.6488673874324</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1430,13 +1430,13 @@
         <v>0.00224242424242424</v>
       </c>
       <c r="B75">
-        <v>-740.4281314221378</v>
+        <v>-754.4775248003161</v>
       </c>
       <c r="C75">
-        <v>357.1050991337412</v>
+        <v>359.611043571864</v>
       </c>
       <c r="D75">
-        <v>383.3230322883965</v>
+        <v>394.8664812284521</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1444,13 +1444,13 @@
         <v>0.00227272727272727</v>
       </c>
       <c r="B76">
-        <v>-758.4928820820882</v>
+        <v>-769.0158292219371</v>
       </c>
       <c r="C76">
-        <v>379.7318130720807</v>
+        <v>384.447023968665</v>
       </c>
       <c r="D76">
-        <v>378.7610690100074</v>
+        <v>384.5688052532722</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1458,13 +1458,13 @@
         <v>0.002303030303030301</v>
       </c>
       <c r="B77">
-        <v>-741.1780839997641</v>
+        <v>-749.9644222905208</v>
       </c>
       <c r="C77">
-        <v>384.0442624026132</v>
+        <v>392.2816994505864</v>
       </c>
       <c r="D77">
-        <v>357.1338215971509</v>
+        <v>357.6827228399345</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1472,13 +1472,13 @@
         <v>0.002333333333333331</v>
       </c>
       <c r="B78">
-        <v>-720.1589085296237</v>
+        <v>-743.7614555557775</v>
       </c>
       <c r="C78">
-        <v>398.4897440388808</v>
+        <v>412.5572153328378</v>
       </c>
       <c r="D78">
-        <v>321.6691644907429</v>
+        <v>331.2042402229397</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1486,13 +1486,13 @@
         <v>0.002363636363636361</v>
       </c>
       <c r="B79">
-        <v>-678.8580556949044</v>
+        <v>-708.4803127019354</v>
       </c>
       <c r="C79">
-        <v>430.1187696476474</v>
+        <v>443.7686953609841</v>
       </c>
       <c r="D79">
-        <v>248.7392860472569</v>
+        <v>264.7116173409513</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1500,13 +1500,13 @@
         <v>0.002393939393939391</v>
       </c>
       <c r="B80">
-        <v>-624.6720473969367</v>
+        <v>-626.8210415438887</v>
       </c>
       <c r="C80">
-        <v>473.2241297259345</v>
+        <v>476.6148458747102</v>
       </c>
       <c r="D80">
-        <v>151.4479176710022</v>
+        <v>150.2061956691784</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1514,13 +1514,13 @@
         <v>0.002424242424242422</v>
       </c>
       <c r="B81">
-        <v>-587.9428880029477</v>
+        <v>-605.8919894094556</v>
       </c>
       <c r="C81">
-        <v>514.9929357223142</v>
+        <v>535.3532945955712</v>
       </c>
       <c r="D81">
-        <v>72.9499522806336</v>
+        <v>70.53869481388426</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1528,13 +1528,13 @@
         <v>0.002454545454545452</v>
       </c>
       <c r="B82">
-        <v>-569.769732492963</v>
+        <v>-587.8983809472385</v>
       </c>
       <c r="C82">
-        <v>537.0209730020388</v>
+        <v>552.9944968804843</v>
       </c>
       <c r="D82">
-        <v>32.74875949092427</v>
+        <v>34.90388406675405</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1542,13 +1542,13 @@
         <v>0.002484848484848482</v>
       </c>
       <c r="B83">
-        <v>-571.4579018905688</v>
+        <v>-579.4299470471947</v>
       </c>
       <c r="C83">
-        <v>562.5694599557744</v>
+        <v>566.9268978082723</v>
       </c>
       <c r="D83">
-        <v>8.888441934794372</v>
+        <v>12.50304923892233</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1556,13 +1556,13 @@
         <v>0.002515151515151512</v>
       </c>
       <c r="B84">
-        <v>-564.1164264220058</v>
+        <v>-570.1858086775256</v>
       </c>
       <c r="C84">
-        <v>572.9618428391799</v>
+        <v>580.7793319521322</v>
       </c>
       <c r="D84">
-        <v>-8.845416417174079</v>
+        <v>-10.59352327460667</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1570,13 +1570,13 @@
         <v>0.002545454545454543</v>
       </c>
       <c r="B85">
-        <v>-537.0066801109372</v>
+        <v>-549.343416864113</v>
       </c>
       <c r="C85">
-        <v>569.4992711414226</v>
+        <v>584.9815324686509</v>
       </c>
       <c r="D85">
-        <v>-32.49259103048536</v>
+        <v>-35.63811560453786</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1584,13 +1584,13 @@
         <v>0.002575757575757573</v>
       </c>
       <c r="B86">
-        <v>-516.2150029346167</v>
+        <v>-543.6207089661593</v>
       </c>
       <c r="C86">
-        <v>588.3279651610837</v>
+        <v>615.2487732259424</v>
       </c>
       <c r="D86">
-        <v>-72.11296222646706</v>
+        <v>-71.628064259783</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1598,13 +1598,13 @@
         <v>0.002606060606060603</v>
       </c>
       <c r="B87">
-        <v>-474.4758669971988</v>
+        <v>-478.7306417716792</v>
       </c>
       <c r="C87">
-        <v>625.1754957171794</v>
+        <v>633.4940530641909</v>
       </c>
       <c r="D87">
-        <v>-150.6996287199806</v>
+        <v>-154.7634112925116</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1612,13 +1612,13 @@
         <v>0.002636363636363633</v>
       </c>
       <c r="B88">
-        <v>-431.4470800161197</v>
+        <v>-437.6038557092363</v>
       </c>
       <c r="C88">
-        <v>678.8618643371701</v>
+        <v>696.1452258421859</v>
       </c>
       <c r="D88">
-        <v>-247.4147843210504</v>
+        <v>-258.5413701329497</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1626,13 +1626,13 @@
         <v>0.002666666666666664</v>
       </c>
       <c r="B89">
-        <v>-399.6657999921234</v>
+        <v>-414.4285418782324</v>
       </c>
       <c r="C89">
-        <v>721.9715310802435</v>
+        <v>750.7337465147081</v>
       </c>
       <c r="D89">
-        <v>-322.3057310881202</v>
+        <v>-336.3052046364757</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1640,13 +1640,13 @@
         <v>0.002696969696969694</v>
       </c>
       <c r="B90">
-        <v>-384.1660500855158</v>
+        <v>-393.0343999285049</v>
       </c>
       <c r="C90">
-        <v>741.9181921455481</v>
+        <v>750.5319556199869</v>
       </c>
       <c r="D90">
-        <v>-357.7521420600323</v>
+        <v>-357.497555691482</v>
       </c>
     </row>
   </sheetData>

--- a/BEMFSimulation/ExcelResults/LineVoltage5500.xlsx
+++ b/BEMFSimulation/ExcelResults/LineVoltage5500.xlsx
@@ -408,13 +408,13 @@
         <v>3.03030303030303e-05</v>
       </c>
       <c r="B2">
-        <v>-361.0144046315116</v>
+        <v>-366.2674028150746</v>
       </c>
       <c r="C2">
-        <v>756.6930161881047</v>
+        <v>760.9027295509818</v>
       </c>
       <c r="D2">
-        <v>-395.6786115565931</v>
+        <v>-394.6353267359071</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -422,13 +422,13 @@
         <v>6.06060606060606e-05</v>
       </c>
       <c r="B3">
-        <v>-331.1789904776257</v>
+        <v>-330.4530749846444</v>
       </c>
       <c r="C3">
-        <v>744.4601724297931</v>
+        <v>740.3676146488649</v>
       </c>
       <c r="D3">
-        <v>-413.2811819521673</v>
+        <v>-409.9145396642205</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -436,13 +436,13 @@
         <v>9.09090909090909e-05</v>
       </c>
       <c r="B4">
-        <v>-263.4685864824634</v>
+        <v>-254.8889802549681</v>
       </c>
       <c r="C4">
-        <v>706.0653836416334</v>
+        <v>696.0737676617232</v>
       </c>
       <c r="D4">
-        <v>-442.5967971591699</v>
+        <v>-441.184787406755</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -450,13 +450,13 @@
         <v>0.0001212121212121212</v>
       </c>
       <c r="B5">
-        <v>-148.4774360274964</v>
+        <v>-154.9867579435839</v>
       </c>
       <c r="C5">
-        <v>625.1931907459352</v>
+        <v>638.8586973267199</v>
       </c>
       <c r="D5">
-        <v>-476.7157547184388</v>
+        <v>-483.871939383136</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -464,13 +464,13 @@
         <v>0.0001515151515151515</v>
       </c>
       <c r="B6">
-        <v>-70.3685277002574</v>
+        <v>-74.73106797098379</v>
       </c>
       <c r="C6">
-        <v>605.4075002767562</v>
+        <v>602.1953535906413</v>
       </c>
       <c r="D6">
-        <v>-535.0389725764987</v>
+        <v>-527.4642856196574</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -478,13 +478,13 @@
         <v>0.0001818181818181818</v>
       </c>
       <c r="B7">
-        <v>-35.49502833266729</v>
+        <v>-33.41610106440345</v>
       </c>
       <c r="C7">
-        <v>587.9129723989449</v>
+        <v>582.0883445593477</v>
       </c>
       <c r="D7">
-        <v>-552.4179440662776</v>
+        <v>-548.6722434949443</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -492,13 +492,13 @@
         <v>0.0002121212121212121</v>
       </c>
       <c r="B8">
-        <v>-13.2760782245274</v>
+        <v>-9.254170594294465</v>
       </c>
       <c r="C8">
-        <v>579.5171660242011</v>
+        <v>587.0543461962613</v>
       </c>
       <c r="D8">
-        <v>-566.2410877996737</v>
+        <v>-577.8001756019669</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -506,13 +506,13 @@
         <v>0.0002424242424242424</v>
       </c>
       <c r="B9">
-        <v>10.19113450320029</v>
+        <v>8.733166196468034</v>
       </c>
       <c r="C9">
-        <v>568.8851964539185</v>
+        <v>578.4632680882422</v>
       </c>
       <c r="D9">
-        <v>-579.0763309571188</v>
+        <v>-587.1964342847102</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -520,13 +520,13 @@
         <v>0.0002727272727272727</v>
       </c>
       <c r="B10">
-        <v>36.03399205651928</v>
+        <v>33.27093944425755</v>
       </c>
       <c r="C10">
-        <v>548.242805212109</v>
+        <v>550.7793978953894</v>
       </c>
       <c r="D10">
-        <v>-584.2767972686283</v>
+        <v>-584.0503373396469</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -534,13 +534,13 @@
         <v>0.000303030303030303</v>
       </c>
       <c r="B11">
-        <v>72.34138821109806</v>
+        <v>73.98812112281044</v>
       </c>
       <c r="C11">
-        <v>541.8291425643764</v>
+        <v>529.820716915165</v>
       </c>
       <c r="D11">
-        <v>-614.1705307754745</v>
+        <v>-603.8088380379754</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -548,13 +548,13 @@
         <v>0.0003333333333333333</v>
       </c>
       <c r="B12">
-        <v>155.0798766920115</v>
+        <v>154.8394173507801</v>
       </c>
       <c r="C12">
-        <v>478.754800807191</v>
+        <v>485.5051013046119</v>
       </c>
       <c r="D12">
-        <v>-633.8346774992026</v>
+        <v>-640.344518655392</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -562,13 +562,13 @@
         <v>0.0003636363636363636</v>
       </c>
       <c r="B13">
-        <v>257.0056445971688</v>
+        <v>252.946220665858</v>
       </c>
       <c r="C13">
-        <v>436.8893758935411</v>
+        <v>441.8761853727994</v>
       </c>
       <c r="D13">
-        <v>-693.8950204907098</v>
+        <v>-694.8224060386574</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -576,13 +576,13 @@
         <v>0.0003939393939393939</v>
       </c>
       <c r="B14">
-        <v>335.0647877189869</v>
+        <v>329.5365716230804</v>
       </c>
       <c r="C14">
-        <v>413.0318053859887</v>
+        <v>409.4179795310878</v>
       </c>
       <c r="D14">
-        <v>-748.0965931049757</v>
+        <v>-738.9545511541683</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -590,13 +590,13 @@
         <v>0.0004242424242424241</v>
       </c>
       <c r="B15">
-        <v>358.5132681961755</v>
+        <v>365.6216443129996</v>
       </c>
       <c r="C15">
-        <v>393.3680179618465</v>
+        <v>393.2597557886605</v>
       </c>
       <c r="D15">
-        <v>-751.881286158022</v>
+        <v>-758.8814001016601</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -604,13 +604,13 @@
         <v>0.0004545454545454544</v>
       </c>
       <c r="B16">
-        <v>384.5538286129209</v>
+        <v>390.207285572725</v>
       </c>
       <c r="C16">
-        <v>386.0796712911841</v>
+        <v>389.7602560596375</v>
       </c>
       <c r="D16">
-        <v>-770.6334999041051</v>
+        <v>-779.9675416323626</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -618,13 +618,13 @@
         <v>0.0004848484848484847</v>
       </c>
       <c r="B17">
-        <v>393.3520425209162</v>
+        <v>393.450646582855</v>
       </c>
       <c r="C17">
-        <v>361.3167133665235</v>
+        <v>366.1188320521188</v>
       </c>
       <c r="D17">
-        <v>-754.6687558874396</v>
+        <v>-759.5694786349737</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -632,13 +632,13 @@
         <v>0.000515151515151515</v>
       </c>
       <c r="B18">
-        <v>413.2909406690025</v>
+        <v>408.7738647030272</v>
       </c>
       <c r="C18">
-        <v>332.5791310588317</v>
+        <v>330.6806134517821</v>
       </c>
       <c r="D18">
-        <v>-745.8700717278342</v>
+        <v>-739.4544781548093</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -646,13 +646,13 @@
         <v>0.0005454545454545454</v>
       </c>
       <c r="B19">
-        <v>444.3796906143606</v>
+        <v>441.882582652523</v>
       </c>
       <c r="C19">
-        <v>263.6713325521638</v>
+        <v>255.8960760538903</v>
       </c>
       <c r="D19">
-        <v>-708.0510231665244</v>
+        <v>-697.7786587064134</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -660,13 +660,13 @@
         <v>0.0005757575757575757</v>
       </c>
       <c r="B20">
-        <v>478.2846629767115</v>
+        <v>485.4573290853753</v>
       </c>
       <c r="C20">
-        <v>150.0371623708296</v>
+        <v>155.1248537637749</v>
       </c>
       <c r="D20">
-        <v>-628.3218253475411</v>
+        <v>-640.5821828491503</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -674,13 +674,13 @@
         <v>0.0006060606060606061</v>
       </c>
       <c r="B21">
-        <v>536.953198914071</v>
+        <v>528.6315927615217</v>
       </c>
       <c r="C21">
-        <v>71.71572050321657</v>
+        <v>74.54714805020052</v>
       </c>
       <c r="D21">
-        <v>-608.6689194172875</v>
+        <v>-603.1787408117223</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -688,13 +688,13 @@
         <v>0.0006363636363636364</v>
       </c>
       <c r="B22">
-        <v>552.4952678830563</v>
+        <v>549.3170872045374</v>
       </c>
       <c r="C22">
-        <v>36.19562158570145</v>
+        <v>33.78944255114868</v>
       </c>
       <c r="D22">
-        <v>-588.6908894687577</v>
+        <v>-583.1065297556861</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -702,13 +702,13 @@
         <v>0.0006666666666666668</v>
       </c>
       <c r="B23">
-        <v>567.340654857916</v>
+        <v>577.9718037609615</v>
       </c>
       <c r="C23">
-        <v>12.09462122001938</v>
+        <v>9.348131607139436</v>
       </c>
       <c r="D23">
-        <v>-579.4352760779354</v>
+        <v>-587.3199353681009</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -716,13 +716,13 @@
         <v>0.0006969696969696971</v>
       </c>
       <c r="B24">
-        <v>581.7978097186021</v>
+        <v>586.811983715666</v>
       </c>
       <c r="C24">
-        <v>-11.67551763199833</v>
+        <v>-9.058528371939587</v>
       </c>
       <c r="D24">
-        <v>-570.1222920866038</v>
+        <v>-577.7534553437265</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -730,13 +730,13 @@
         <v>0.0007272727272727274</v>
       </c>
       <c r="B25">
-        <v>585.6555873516505</v>
+        <v>584.7767206301278</v>
       </c>
       <c r="C25">
-        <v>-35.89052329610396</v>
+        <v>-33.78557525418907</v>
       </c>
       <c r="D25">
-        <v>-549.7650640555465</v>
+        <v>-550.9911453759387</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -744,13 +744,13 @@
         <v>0.0007575757575757578</v>
       </c>
       <c r="B26">
-        <v>612.5852237379974</v>
+        <v>604.8803226761474</v>
       </c>
       <c r="C26">
-        <v>-70.62815337096623</v>
+        <v>-74.07888666329418</v>
       </c>
       <c r="D26">
-        <v>-541.9570703670311</v>
+        <v>-530.8014360128532</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -758,13 +758,13 @@
         <v>0.0007878787878787881</v>
       </c>
       <c r="B27">
-        <v>631.1557308736595</v>
+        <v>641.8013140774433</v>
       </c>
       <c r="C27">
-        <v>-152.630692384619</v>
+        <v>-154.7504139777877</v>
       </c>
       <c r="D27">
-        <v>-478.5250384890405</v>
+        <v>-487.0509000996556</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -772,13 +772,13 @@
         <v>0.0008181818181818185</v>
       </c>
       <c r="B28">
-        <v>694.9609496832829</v>
+        <v>697.1686893273286</v>
       </c>
       <c r="C28">
-        <v>-257.4524633788384</v>
+        <v>-253.7751519061811</v>
       </c>
       <c r="D28">
-        <v>-437.5084863044445</v>
+        <v>-443.3935374211476</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -786,13 +786,13 @@
         <v>0.0008484848484848488</v>
       </c>
       <c r="B29">
-        <v>751.1186536145676</v>
+        <v>740.1826264717299</v>
       </c>
       <c r="C29">
-        <v>-336.4376565080761</v>
+        <v>-330.3859072723796</v>
       </c>
       <c r="D29">
-        <v>-414.6809971064914</v>
+        <v>-409.7967191993503</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -800,13 +800,13 @@
         <v>0.0008787878787878792</v>
       </c>
       <c r="B30">
-        <v>754.4635190500542</v>
+        <v>759.2707103636401</v>
       </c>
       <c r="C30">
-        <v>-359.576101936907</v>
+        <v>-366.1437513762269</v>
       </c>
       <c r="D30">
-        <v>-394.8874171131471</v>
+        <v>-393.1269589874132</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -814,13 +814,13 @@
         <v>0.0009090909090909095</v>
       </c>
       <c r="B31">
-        <v>769.0144241469932</v>
+        <v>779.4313743056128</v>
       </c>
       <c r="C31">
-        <v>-384.4227383498896</v>
+        <v>-390.0561554392052</v>
       </c>
       <c r="D31">
-        <v>-384.5916857971035</v>
+        <v>-389.3752188664076</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -828,13 +828,13 @@
         <v>0.0009393939393939399</v>
       </c>
       <c r="B32">
-        <v>749.9921580149814</v>
+        <v>758.8446239095346</v>
       </c>
       <c r="C32">
-        <v>-392.2684552734046</v>
+        <v>-393.3954698740238</v>
       </c>
       <c r="D32">
-        <v>-357.7237027415768</v>
+        <v>-365.4491540355107</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -842,13 +842,13 @@
         <v>0.0009696969696969702</v>
       </c>
       <c r="B33">
-        <v>743.7548058364405</v>
+        <v>738.72268847955</v>
       </c>
       <c r="C33">
-        <v>-412.5121389494078</v>
+        <v>-408.9263376658643</v>
       </c>
       <c r="D33">
-        <v>-331.2426668870327</v>
+        <v>-329.7963508136858</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -856,13 +856,13 @@
         <v>0.001</v>
       </c>
       <c r="B34">
-        <v>708.6082324242957</v>
+        <v>697.0168465915971</v>
       </c>
       <c r="C34">
-        <v>-443.728783725791</v>
+        <v>-441.5788017868262</v>
       </c>
       <c r="D34">
-        <v>-264.8794486985047</v>
+        <v>-255.4380448047709</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -870,13 +870,13 @@
         <v>0.001030303030303031</v>
       </c>
       <c r="B35">
-        <v>626.88740329958</v>
+        <v>640.1990699989598</v>
       </c>
       <c r="C35">
-        <v>-476.5408484415205</v>
+        <v>-484.8801917890484</v>
       </c>
       <c r="D35">
-        <v>-150.3465548580594</v>
+        <v>-155.3188782099114</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -884,13 +884,13 @@
         <v>0.001060606060606061</v>
       </c>
       <c r="B36">
-        <v>605.9028422706281</v>
+        <v>602.8686560984056</v>
       </c>
       <c r="C36">
-        <v>-535.2798039912167</v>
+        <v>-528.0414693715441</v>
       </c>
       <c r="D36">
-        <v>-70.62303827941142</v>
+        <v>-74.82718672686161</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -898,13 +898,13 @@
         <v>0.001090909090909091</v>
       </c>
       <c r="B37">
-        <v>587.935160840699</v>
+        <v>583.1983768423387</v>
       </c>
       <c r="C37">
-        <v>-553.0005532289922</v>
+        <v>-549.6120002618568</v>
       </c>
       <c r="D37">
-        <v>-34.93460761170687</v>
+        <v>-33.58637658048184</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -912,13 +912,13 @@
         <v>0.001121212121212121</v>
       </c>
       <c r="B38">
-        <v>579.4206927585144</v>
+        <v>587.306233024394</v>
       </c>
       <c r="C38">
-        <v>-566.8876882371189</v>
+        <v>-578.1883896846196</v>
       </c>
       <c r="D38">
-        <v>-12.53300452139544</v>
+        <v>-9.117843339774481</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -926,13 +926,13 @@
         <v>0.001151515151515152</v>
       </c>
       <c r="B39">
-        <v>570.2229319738992</v>
+        <v>578.5893138929413</v>
       </c>
       <c r="C39">
-        <v>-580.7815030057682</v>
+        <v>-587.614908147139</v>
       </c>
       <c r="D39">
-        <v>10.55857103186895</v>
+        <v>9.025594254197699</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -940,13 +940,13 @@
         <v>0.001181818181818182</v>
       </c>
       <c r="B40">
-        <v>549.3653179117002</v>
+        <v>550.1367966709719</v>
       </c>
       <c r="C40">
-        <v>-584.9600056755812</v>
+        <v>-583.6220487922396</v>
       </c>
       <c r="D40">
-        <v>35.5946877638809</v>
+        <v>33.48525212126779</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -954,13 +954,13 @@
         <v>0.001212121212121212</v>
       </c>
       <c r="B41">
-        <v>543.6564280030914</v>
+        <v>529.9263195419013</v>
       </c>
       <c r="C41">
-        <v>-615.2063208310703</v>
+        <v>-603.915590247982</v>
       </c>
       <c r="D41">
-        <v>71.54989282797897</v>
+        <v>73.98927070608073</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -968,13 +968,13 @@
         <v>0.001242424242424242</v>
       </c>
       <c r="B42">
-        <v>478.8275823972942</v>
+        <v>486.240919005878</v>
       </c>
       <c r="C42">
-        <v>-633.4537328898658</v>
+        <v>-641.097346292881</v>
       </c>
       <c r="D42">
-        <v>154.6261504925716</v>
+        <v>154.856427287003</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -982,13 +982,13 @@
         <v>0.001272727272727273</v>
       </c>
       <c r="B43">
-        <v>437.6416370789098</v>
+        <v>442.4174685843095</v>
       </c>
       <c r="C43">
-        <v>-696.0297520641167</v>
+        <v>-695.8970812506377</v>
       </c>
       <c r="D43">
-        <v>258.3881149852069</v>
+        <v>253.4796126663281</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -996,13 +996,13 @@
         <v>0.001303030303030303</v>
       </c>
       <c r="B44">
-        <v>414.4635043897255</v>
+        <v>409.5809067528544</v>
       </c>
       <c r="C44">
-        <v>-750.7136483396325</v>
+        <v>-739.8465634875895</v>
       </c>
       <c r="D44">
-        <v>336.2501439499071</v>
+        <v>330.265656734735</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1010,13 +1010,13 @@
         <v>0.001333333333333333</v>
       </c>
       <c r="B45">
-        <v>393.0513703157496</v>
+        <v>393.6945712127098</v>
       </c>
       <c r="C45">
-        <v>-750.5106091613243</v>
+        <v>-760.4072612606758</v>
       </c>
       <c r="D45">
-        <v>357.4592388455746</v>
+        <v>366.712690047966</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1024,13 +1024,13 @@
         <v>0.001363636363636363</v>
       </c>
       <c r="B46">
-        <v>387.2035813678013</v>
+        <v>390.5133255232661</v>
       </c>
       <c r="C46">
-        <v>-773.7638526189835</v>
+        <v>-781.8249530427818</v>
       </c>
       <c r="D46">
-        <v>386.5602712511821</v>
+        <v>391.3116275195156</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1038,13 +1038,13 @@
         <v>0.001393939393939394</v>
       </c>
       <c r="B47">
-        <v>360.9748087160771</v>
+        <v>366.2201198598381</v>
       </c>
       <c r="C47">
-        <v>-756.6688839936734</v>
+        <v>-760.8634914509066</v>
       </c>
       <c r="D47">
-        <v>395.6940752775963</v>
+        <v>394.6433715910685</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1052,13 +1052,13 @@
         <v>0.001424242424242424</v>
       </c>
       <c r="B48">
-        <v>331.1351863536514</v>
+        <v>330.387837678893</v>
       </c>
       <c r="C48">
-        <v>-744.4595721030562</v>
+        <v>-740.3367194324248</v>
       </c>
       <c r="D48">
-        <v>413.3243857494048</v>
+        <v>409.9488817535319</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1066,13 +1066,13 @@
         <v>0.001454545454545454</v>
       </c>
       <c r="B49">
-        <v>263.2977561349472</v>
+        <v>254.741924107681</v>
       </c>
       <c r="C49">
-        <v>-705.930467131042</v>
+        <v>-695.984160947698</v>
       </c>
       <c r="D49">
-        <v>442.6327109960948</v>
+        <v>441.242236840017</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1080,13 +1080,13 @@
         <v>0.001484848484848484</v>
       </c>
       <c r="B50">
-        <v>148.3410111472899</v>
+        <v>154.8546516298474</v>
       </c>
       <c r="C50">
-        <v>-625.132666764428</v>
+        <v>-638.7908404363532</v>
       </c>
       <c r="D50">
-        <v>476.7916556171381</v>
+        <v>483.9361888065059</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1094,13 +1094,13 @@
         <v>0.001515151515151514</v>
       </c>
       <c r="B51">
-        <v>70.28428657435597</v>
+        <v>74.64146989437663</v>
       </c>
       <c r="C51">
-        <v>-605.3907256160696</v>
+        <v>-602.1539347359707</v>
       </c>
       <c r="D51">
-        <v>535.1064390417137</v>
+        <v>527.512464841594</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1108,13 +1108,13 @@
         <v>0.001545454545454545</v>
       </c>
       <c r="B52">
-        <v>35.46645052913217</v>
+        <v>33.37578980633026</v>
       </c>
       <c r="C52">
-        <v>-587.8806433649605</v>
+        <v>-582.0804253347866</v>
       </c>
       <c r="D52">
-        <v>552.4141928358283</v>
+        <v>548.7046355284564</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1122,13 +1122,13 @@
         <v>0.001575757575757575</v>
       </c>
       <c r="B53">
-        <v>13.24478819390484</v>
+        <v>9.226419434584102</v>
       </c>
       <c r="C53">
-        <v>-579.5259191766677</v>
+        <v>-587.0661137308844</v>
       </c>
       <c r="D53">
-        <v>566.2811309827629</v>
+        <v>577.8396942963002</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1136,13 +1136,13 @@
         <v>0.001606060606060605</v>
       </c>
       <c r="B54">
-        <v>-10.22693785275769</v>
+        <v>-8.762073732429684</v>
       </c>
       <c r="C54">
-        <v>-568.8487858770902</v>
+        <v>-578.4233380393248</v>
       </c>
       <c r="D54">
-        <v>579.0757237298479</v>
+        <v>587.1854117717544</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1150,13 +1150,13 @@
         <v>0.001636363636363635</v>
       </c>
       <c r="B55">
-        <v>-36.07855475225921</v>
+        <v>-33.3124255199032</v>
       </c>
       <c r="C55">
-        <v>-548.2189571935139</v>
+        <v>-550.7516854646829</v>
       </c>
       <c r="D55">
-        <v>584.2975119457731</v>
+        <v>584.064110984586</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1164,13 +1164,13 @@
         <v>0.001666666666666666</v>
       </c>
       <c r="B56">
-        <v>-72.42023662930603</v>
+        <v>-74.07560299982438</v>
       </c>
       <c r="C56">
-        <v>-541.7930042553314</v>
+        <v>-529.7684646121279</v>
       </c>
       <c r="D56">
-        <v>614.2132408846375</v>
+        <v>603.8440676119523</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1178,13 +1178,13 @@
         <v>0.001696969696969696</v>
       </c>
       <c r="B57">
-        <v>-155.2139172789056</v>
+        <v>-154.9729111493626</v>
       </c>
       <c r="C57">
-        <v>-478.65929589118</v>
+        <v>-485.4414257043823</v>
       </c>
       <c r="D57">
-        <v>633.8732131700856</v>
+        <v>640.414336853745</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1192,13 +1192,13 @@
         <v>0.001727272727272726</v>
       </c>
       <c r="B58">
-        <v>-257.1572331073333</v>
+        <v>-253.0903166491276</v>
       </c>
       <c r="C58">
-        <v>-436.8505608301187</v>
+        <v>-441.817826310556</v>
       </c>
       <c r="D58">
-        <v>694.007793937452</v>
+        <v>694.9081429596836</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1206,13 +1206,13 @@
         <v>0.001757575757575756</v>
       </c>
       <c r="B59">
-        <v>-335.1237655131013</v>
+        <v>-329.6045144016178</v>
       </c>
       <c r="C59">
-        <v>-412.9991688201431</v>
+        <v>-409.3819166699057</v>
       </c>
       <c r="D59">
-        <v>748.1229343332444</v>
+        <v>738.9864310715235</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1220,13 +1220,13 @@
         <v>0.001787878787878787</v>
       </c>
       <c r="B60">
-        <v>-358.5502968139425</v>
+        <v>-365.6709686304443</v>
       </c>
       <c r="C60">
-        <v>-393.3500779574342</v>
+        <v>-393.2518044380529</v>
       </c>
       <c r="D60">
-        <v>751.9003747713766</v>
+        <v>758.9227730684972</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1234,13 +1234,13 @@
         <v>0.001818181818181817</v>
       </c>
       <c r="B61">
-        <v>-384.5778894300898</v>
+        <v>-390.2219573005998</v>
       </c>
       <c r="C61">
-        <v>-386.0588378540943</v>
+        <v>-389.7462636434751</v>
       </c>
       <c r="D61">
-        <v>770.6367272841842</v>
+        <v>779.9682209440749</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1248,13 +1248,13 @@
         <v>0.001848484848484847</v>
       </c>
       <c r="B62">
-        <v>-393.3657896864195</v>
+        <v>-393.4550313028475</v>
       </c>
       <c r="C62">
-        <v>-361.2773323821132</v>
+        <v>-366.0703160221058</v>
       </c>
       <c r="D62">
-        <v>754.6431220685328</v>
+        <v>759.5253473249534</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1262,13 +1262,13 @@
         <v>0.001878787878787877</v>
       </c>
       <c r="B63">
-        <v>-413.3403292851896</v>
+        <v>-408.811588978076</v>
       </c>
       <c r="C63">
-        <v>-332.5372381078595</v>
+        <v>-330.6163315375531</v>
       </c>
       <c r="D63">
-        <v>745.877567393049</v>
+        <v>739.4279205156291</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1276,13 +1276,13 @@
         <v>0.001909090909090908</v>
       </c>
       <c r="B64">
-        <v>-444.415962299045</v>
+        <v>-441.9425690845769</v>
       </c>
       <c r="C64">
-        <v>-263.4989072246921</v>
+        <v>-255.7489628329178</v>
       </c>
       <c r="D64">
-        <v>707.914869523737</v>
+        <v>697.6915319174948</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1290,13 +1290,13 @@
         <v>0.001939393939393938</v>
       </c>
       <c r="B65">
-        <v>-478.3602205347756</v>
+        <v>-485.5204751528834</v>
       </c>
       <c r="C65">
-        <v>-149.9011014140786</v>
+        <v>-154.9908214521499</v>
       </c>
       <c r="D65">
-        <v>628.2613219488542</v>
+        <v>640.5112966050333</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1304,13 +1304,13 @@
         <v>0.001969696969696968</v>
       </c>
       <c r="B66">
-        <v>-537.0224252168767</v>
+        <v>-528.6851823737678</v>
       </c>
       <c r="C66">
-        <v>-71.63290336577546</v>
+        <v>-74.4594329222306</v>
       </c>
       <c r="D66">
-        <v>608.6553285826523</v>
+        <v>603.1446152959984</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1318,13 +1318,13 @@
         <v>0.001999999999999998</v>
       </c>
       <c r="B67">
-        <v>-552.4925873373652</v>
+        <v>-549.3400877160109</v>
       </c>
       <c r="C67">
-        <v>-36.16375986457754</v>
+        <v>-33.74821330240994</v>
       </c>
       <c r="D67">
-        <v>588.6563472019427</v>
+        <v>583.0883010184208</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1332,13 +1332,13 @@
         <v>0.002030303030303029</v>
       </c>
       <c r="B68">
-        <v>-567.3785793244707</v>
+        <v>-578.0121632430179</v>
       </c>
       <c r="C68">
-        <v>-12.06222423917117</v>
+        <v>-9.32020110036575</v>
       </c>
       <c r="D68">
-        <v>579.4408035636419</v>
+        <v>587.3323643433836</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1346,13 +1346,13 @@
         <v>0.002060606060606059</v>
       </c>
       <c r="B69">
-        <v>-581.7972408666383</v>
+        <v>-586.8016674889614</v>
       </c>
       <c r="C69">
-        <v>11.71073207489493</v>
+        <v>9.08833576080977</v>
       </c>
       <c r="D69">
-        <v>570.0865087917434</v>
+        <v>577.7133317281515</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1360,13 +1360,13 @@
         <v>0.002090909090909089</v>
       </c>
       <c r="B70">
-        <v>-585.6733681557804</v>
+        <v>-584.7936169596401</v>
       </c>
       <c r="C70">
-        <v>35.93187518085432</v>
+        <v>33.82673624301094</v>
       </c>
       <c r="D70">
-        <v>549.7414929749261</v>
+        <v>550.9668807166291</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1374,13 +1374,13 @@
         <v>0.002121212121212119</v>
       </c>
       <c r="B71">
-        <v>-612.6273926564935</v>
+        <v>-604.9184302056066</v>
       </c>
       <c r="C71">
-        <v>70.70525608582247</v>
+        <v>74.16603804743124</v>
       </c>
       <c r="D71">
-        <v>541.922136570671</v>
+        <v>530.7523921581753</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1388,13 +1388,13 @@
         <v>0.002151515151515149</v>
       </c>
       <c r="B72">
-        <v>-631.1907478551815</v>
+        <v>-641.8698788432096</v>
       </c>
       <c r="C72">
-        <v>152.7654367871793</v>
+        <v>154.8839566066868</v>
       </c>
       <c r="D72">
-        <v>478.4253110680021</v>
+        <v>486.9859222365227</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1402,13 +1402,13 @@
         <v>0.00218181818181818</v>
       </c>
       <c r="B73">
-        <v>-695.081010003445</v>
+        <v>-697.2552726065037</v>
       </c>
       <c r="C73">
-        <v>257.6083600926987</v>
+        <v>253.9210736644546</v>
       </c>
       <c r="D73">
-        <v>437.4726499107463</v>
+        <v>443.3341989420492</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1416,13 +1416,13 @@
         <v>0.00221212121212121</v>
       </c>
       <c r="B74">
-        <v>-751.145308098988</v>
+        <v>-740.2130263434221</v>
       </c>
       <c r="C74">
-        <v>336.4964407115556</v>
+        <v>330.4532249280962</v>
       </c>
       <c r="D74">
-        <v>414.6488673874324</v>
+        <v>409.7598014153259</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1430,13 +1430,13 @@
         <v>0.00224242424242424</v>
       </c>
       <c r="B75">
-        <v>-754.4775248003161</v>
+        <v>-759.3070238013829</v>
       </c>
       <c r="C75">
-        <v>359.611043571864</v>
+        <v>366.1903554242185</v>
       </c>
       <c r="D75">
-        <v>394.8664812284521</v>
+        <v>393.1166683771645</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1444,13 +1444,13 @@
         <v>0.00227272727272727</v>
       </c>
       <c r="B76">
-        <v>-769.0158292219371</v>
+        <v>-779.4340231138146</v>
       </c>
       <c r="C76">
-        <v>384.447023968665</v>
+        <v>390.0722711423584</v>
       </c>
       <c r="D76">
-        <v>384.5688052532722</v>
+        <v>389.3617519714563</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1458,13 +1458,13 @@
         <v>0.002303030303030301</v>
       </c>
       <c r="B77">
-        <v>-749.9644222905208</v>
+        <v>-758.8050541183195</v>
       </c>
       <c r="C77">
-        <v>392.2816994505864</v>
+        <v>393.4035026028312</v>
       </c>
       <c r="D77">
-        <v>357.6827228399345</v>
+        <v>365.4015515154883</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1472,13 +1472,13 @@
         <v>0.002333333333333331</v>
       </c>
       <c r="B78">
-        <v>-743.7614555557775</v>
+        <v>-738.6941620369309</v>
       </c>
       <c r="C78">
-        <v>412.5572153328378</v>
+        <v>408.9622878176557</v>
       </c>
       <c r="D78">
-        <v>331.2042402229397</v>
+        <v>329.7318742192753</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1486,13 +1486,13 @@
         <v>0.002363636363636361</v>
       </c>
       <c r="B79">
-        <v>-708.4803127019354</v>
+        <v>-696.9276000064693</v>
       </c>
       <c r="C79">
-        <v>443.7686953609841</v>
+        <v>441.6363555680082</v>
       </c>
       <c r="D79">
-        <v>264.7116173409513</v>
+        <v>255.2912444384611</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1500,13 +1500,13 @@
         <v>0.002393939393939391</v>
       </c>
       <c r="B80">
-        <v>-626.8210415438887</v>
+        <v>-640.125453174209</v>
       </c>
       <c r="C80">
-        <v>476.6148458747102</v>
+        <v>484.9402188354771</v>
       </c>
       <c r="D80">
-        <v>150.2061956691784</v>
+        <v>155.185234338732</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1514,13 +1514,13 @@
         <v>0.002424242424242422</v>
       </c>
       <c r="B81">
-        <v>-605.8919894094556</v>
+        <v>-602.8335114264841</v>
       </c>
       <c r="C81">
-        <v>535.3532945955712</v>
+        <v>528.0952519742914</v>
       </c>
       <c r="D81">
-        <v>70.53869481388426</v>
+        <v>74.73825945219272</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1528,13 +1528,13 @@
         <v>0.002454545454545452</v>
       </c>
       <c r="B82">
-        <v>-587.8983809472385</v>
+        <v>-583.1853214619985</v>
       </c>
       <c r="C82">
-        <v>552.9944968804843</v>
+        <v>549.6403478222398</v>
       </c>
       <c r="D82">
-        <v>34.90388406675405</v>
+        <v>33.54497363975855</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1542,13 +1542,13 @@
         <v>0.002484848484848482</v>
       </c>
       <c r="B83">
-        <v>-579.4299470471947</v>
+        <v>-587.3202806397353</v>
       </c>
       <c r="C83">
-        <v>566.9268978082723</v>
+        <v>578.230372139296</v>
       </c>
       <c r="D83">
-        <v>12.50304923892233</v>
+        <v>9.089908500439179</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1556,13 +1556,13 @@
         <v>0.002515151515151512</v>
       </c>
       <c r="B84">
-        <v>-570.1858086775256</v>
+        <v>-578.5453140802554</v>
       </c>
       <c r="C84">
-        <v>580.7793319521322</v>
+        <v>587.5999476008433</v>
       </c>
       <c r="D84">
-        <v>-10.59352327460667</v>
+        <v>-9.054633520587998</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1570,13 +1570,13 @@
         <v>0.002545454545454543</v>
       </c>
       <c r="B85">
-        <v>-549.343416864113</v>
+        <v>-550.1082245427351</v>
       </c>
       <c r="C85">
-        <v>584.9815324686509</v>
+        <v>583.6339830195785</v>
       </c>
       <c r="D85">
-        <v>-35.63811560453786</v>
+        <v>-33.52575847684341</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1584,13 +1584,13 @@
         <v>0.002575757575757573</v>
       </c>
       <c r="B86">
-        <v>-543.6207089661593</v>
+        <v>-529.8793152569071</v>
       </c>
       <c r="C86">
-        <v>615.2487732259424</v>
+        <v>603.9559477155203</v>
       </c>
       <c r="D86">
-        <v>-71.628064259783</v>
+        <v>-74.07663245861309</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1598,13 +1598,13 @@
         <v>0.002606060606060603</v>
       </c>
       <c r="B87">
-        <v>-478.7306417716792</v>
+        <v>-486.1764910064925</v>
       </c>
       <c r="C87">
-        <v>633.4940530641909</v>
+        <v>641.1679939698031</v>
       </c>
       <c r="D87">
-        <v>-154.7634112925116</v>
+        <v>-154.9915029633106</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1612,13 +1612,13 @@
         <v>0.002636363636363633</v>
       </c>
       <c r="B88">
-        <v>-437.6038557092363</v>
+        <v>-442.359652585125</v>
       </c>
       <c r="C88">
-        <v>696.1452258421859</v>
+        <v>695.9840047023772</v>
       </c>
       <c r="D88">
-        <v>-258.5413701329497</v>
+        <v>-253.6243521172522</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1626,13 +1626,13 @@
         <v>0.002666666666666664</v>
       </c>
       <c r="B89">
-        <v>-414.4285418782324</v>
+        <v>-409.5426290081857</v>
       </c>
       <c r="C89">
-        <v>750.7337465147081</v>
+        <v>739.8744339391928</v>
       </c>
       <c r="D89">
-        <v>-336.3052046364757</v>
+        <v>-330.3318049310071</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1640,13 +1640,13 @@
         <v>0.002696969696969694</v>
       </c>
       <c r="B90">
-        <v>-393.0343999285049</v>
+        <v>-393.6884919863301</v>
       </c>
       <c r="C90">
-        <v>750.5319556199869</v>
+        <v>760.4510627460672</v>
       </c>
       <c r="D90">
-        <v>-357.497555691482</v>
+        <v>-366.7625707597371</v>
       </c>
     </row>
   </sheetData>
